--- a/FromPlusesToAssemblyLab1/cmake-build-debug/xlsxFiles/Key_words.xlsx
+++ b/FromPlusesToAssemblyLab1/cmake-build-debug/xlsxFiles/Key_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>№</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Lexeme Code</t>
   </si>
   <si>
+    <t>#include</t>
+  </si>
+  <si>
     <t>alignas</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>and_eq</t>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>asm</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>bitor</t>
   </si>
   <si>
+    <t>bitset</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>catch</t>
   </si>
   <si>
+    <t>char</t>
+  </si>
+  <si>
     <t>char16_t</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>continue</t>
   </si>
   <si>
+    <t>cout</t>
+  </si>
+  <si>
     <t>decltype</t>
   </si>
   <si>
@@ -115,6 +130,9 @@
     <t>delete</t>
   </si>
   <si>
+    <t>deque</t>
+  </si>
+  <si>
     <t>do</t>
   </si>
   <si>
@@ -127,6 +145,9 @@
     <t>else</t>
   </si>
   <si>
+    <t>endl</t>
+  </si>
+  <si>
     <t>enum</t>
   </si>
   <si>
@@ -148,6 +169,9 @@
     <t>for</t>
   </si>
   <si>
+    <t>forward_list</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
@@ -157,18 +181,36 @@
     <t>if</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>inline</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>iostream</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
     <t>main</t>
   </si>
   <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>multimap</t>
+  </si>
+  <si>
+    <t>multiset</t>
+  </si>
+  <si>
     <t>mutable</t>
   </si>
   <si>
@@ -193,12 +235,21 @@
     <t>operator</t>
   </si>
   <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>or</t>
   </si>
   <si>
     <t>or_eq</t>
   </si>
   <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>priority_queue</t>
+  </si>
+  <si>
     <t>private</t>
   </si>
   <si>
@@ -208,6 +259,9 @@
     <t>public</t>
   </si>
   <si>
+    <t>queue</t>
+  </si>
+  <si>
     <t>reflexpr</t>
   </si>
   <si>
@@ -223,6 +277,9 @@
     <t>return</t>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
@@ -232,6 +289,9 @@
     <t>sizeof</t>
   </si>
   <si>
+    <t>stack</t>
+  </si>
+  <si>
     <t>static</t>
   </si>
   <si>
@@ -241,6 +301,12 @@
     <t>static_cast</t>
   </si>
   <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>struct</t>
   </si>
   <si>
@@ -268,6 +334,9 @@
     <t>try</t>
   </si>
   <si>
+    <t>tuple</t>
+  </si>
+  <si>
     <t>typedef</t>
   </si>
   <si>
@@ -280,12 +349,24 @@
     <t>union</t>
   </si>
   <si>
+    <t>unordered_map</t>
+  </si>
+  <si>
+    <t>unordered_set</t>
+  </si>
+  <si>
     <t>unsigned</t>
   </si>
   <si>
     <t>using</t>
   </si>
   <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
     <t>virtual</t>
   </si>
   <si>
@@ -299,6 +380,9 @@
   </si>
   <si>
     <t>while</t>
+  </si>
+  <si>
+    <t>wstring</t>
   </si>
   <si>
     <t>xor</t>
@@ -636,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,6 +1771,314 @@
         <v>10</v>
       </c>
     </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0,7" right="0,7" top="0,75" bottom="0,75" header="0,3" footer="0,3"/>
 </worksheet>
